--- a/data/trans_dic/P55_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada</t>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>88,63%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>76,65%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>89,66%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>79,72%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>79,07%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>89,78%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>77,88%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>77,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>88,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>77,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>78,78%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,74; 92,49</t>
+          <t>85,93; 92,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,03; 80,23</t>
+          <t>85,25; 91,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,28; 91,65</t>
+          <t>73,2; 80,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,82; 81,71</t>
+          <t>76,2; 82,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>87,42; 91,43</t>
+          <t>87,39; 91,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,2; 79,9</t>
+          <t>85,01; 90,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76,21; 82,08</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75,11; 80,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>87,75; 91,47</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>86,16; 90,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>75,45; 80,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>76,63; 80,75</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,37%</t>
+          <t>84,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,16%</t>
+          <t>82,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>74,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>84,81%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>81,57%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,18; 92,48</t>
+          <t>85,25; 92,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,8; 84,9</t>
+          <t>79,24; 88,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,61; 91,37</t>
+          <t>73,37; 84,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,43; 80,33</t>
+          <t>72,52; 83,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,88; 91,09</t>
+          <t>84,25; 90,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,25; 81,03</t>
+          <t>76,59; 85,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>68,2; 80,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>79,33; 89,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86,46; 90,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79,73; 86,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72,64; 80,9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>77,87; 85,0</t>
         </is>
       </c>
     </row>
@@ -761,19 +937,19 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>81,64%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>83,42%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
@@ -781,10 +957,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83,06%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>84,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>82,33%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,19 +1005,19 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,17; 92,48</t>
+          <t>71,36; 91,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>73,01; 88,83</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>77,03; 88,27</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,66; 88,82</t>
+          <t>77,41; 88,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>75,71; 89,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76,04; 88,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76,81; 86,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>86,07%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>77,3%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>88,61%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>79,45%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88,44%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>85,32%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>78,14%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>88,97%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>88,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>77,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79,42%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,3; 91,27</t>
+          <t>86,47; 91,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,98; 80,17</t>
+          <t>83,37; 88,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,78; 90,18</t>
+          <t>73,95; 80,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,2; 80,65</t>
+          <t>76,73; 82,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,44; 90,35</t>
+          <t>86,38; 90,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,7</t>
+          <t>82,61; 87,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>75,44; 80,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76,8; 81,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87,51; 90,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83,89; 87,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>75,61; 79,57</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>77,47; 81,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse mantener la vivienda con una temperatura adecuada (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>755.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>666.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1370.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1185.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1204.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1471913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1423268</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>172204</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>178011</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1596940</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1568990</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>184906</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>182164</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3068853</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2992258</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>357110</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>360176</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1407160; 1512898</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1368876; 1468279</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>164459; 180218</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>170157; 184624</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1556221; 1631061</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1512335; 1611419</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>178217; 191948</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>175661; 188463</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2999890; 3126827</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2916286; 3058221</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>345927; 367213</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>350326; 369159</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1005.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>775.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1209461</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1152147</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56059</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55245</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1180978</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1113311</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47231</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54938</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2390441</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2265459</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>103290</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>110183</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1148659; 1242608</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1081296; 1203055</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51810; 59745</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50976; 58517</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1125381; 1215108</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1037207; 1159492</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43122; 50917</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51393; 57679</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2319815; 2441357</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2167824; 2346757</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>97225; 108290</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>105185; 114811</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>359519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>342595</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>342918</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>334836</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>702437</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>677431</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>299882; 385775</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>306367; 372772</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>318837; 363267</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>305207; 358772</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>632722; 734999</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>631963; 715222</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1200.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>887.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1442.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1075.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>837.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>864.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2642.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1962.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1536.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1572.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3040895</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2918011</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>228263</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>233257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3120836</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3017137</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>232137</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>237101</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6161730</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5935148</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>460400</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>470359</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2944490; 3108875</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2826385; 2998722</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>218357; 236507</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>225269; 240873</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3048106; 3177075</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2921440; 3096607</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224122; 239428</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>229359; 244020</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6067946; 6255331</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5810679; 6045358</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>447874; 471332</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>458822; 480448</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
